--- a/Problem Sets/1swap.xlsx
+++ b/Problem Sets/1swap.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\CS 32\Problem Sets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FB3836-2B57-466C-B670-887D5A6B9F2C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5AFB0E72-ED02-4643-89DD-572CF8889C22}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="1swap" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="15">
   <si>
-    <t>N</t>
+    <t>N = 10</t>
+  </si>
+  <si>
+    <t>Test Case</t>
   </si>
   <si>
     <t xml:space="preserve"> Bubble Sort</t>
@@ -33,11 +36,41 @@
   <si>
     <t xml:space="preserve"> Selection Sort</t>
   </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>N = 20</t>
+  </si>
+  <si>
+    <t>N = 50</t>
+  </si>
+  <si>
+    <t>N = 100</t>
+  </si>
+  <si>
+    <t>N = 200</t>
+  </si>
+  <si>
+    <t>N = 1000</t>
+  </si>
+  <si>
+    <t>N = 5000</t>
+  </si>
+  <si>
+    <t>N = 10000</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -610,8 +643,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-PH"/>
-              <a:t>Swaps Test</a:t>
+              <a:t>Swap</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-PH" baseline="0"/>
+              <a:t> Test</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-PH"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -651,11 +689,11 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'1swap'!$B$1</c:f>
+              <c:f>'1swap'!$B$266</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -667,7 +705,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -678,7 +716,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'1swap'!$A$2:$A$9</c:f>
+              <c:f>'1swap'!$A$267:$A$274</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -711,33 +749,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1swap'!$B$2:$B$9</c:f>
+              <c:f>'1swap'!$B$267:$B$274</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>22.933333000000001</c:v>
+                  <c:v>22.766667000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>97.366667000000007</c:v>
+                  <c:v>93.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>611.9</c:v>
+                  <c:v>600.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2485.6</c:v>
+                  <c:v>2462.6999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9971.3666670000002</c:v>
+                  <c:v>9971.5666669999991</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>251981.86666699999</c:v>
+                  <c:v>248899.13333300001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6251201.5333329998</c:v>
+                  <c:v>6233470.7999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24981362.966667</c:v>
+                  <c:v>24940610.566667002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -745,16 +783,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0272-4B18-A03D-1C0FCDD1A8C7}"/>
+              <c16:uniqueId val="{00000000-7E1A-4036-9B73-565CF14D3FB3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'1swap'!$C$1</c:f>
+              <c:f>'1swap'!$C$266</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -766,7 +804,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -777,7 +815,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'1swap'!$A$2:$A$9</c:f>
+              <c:f>'1swap'!$A$267:$A$274</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -810,33 +848,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1swap'!$C$2:$C$9</c:f>
+              <c:f>'1swap'!$C$267:$C$274</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>21.8</c:v>
+                  <c:v>12.266667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>92.93</c:v>
+                  <c:v>34.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>609.77</c:v>
+                  <c:v>126.733333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2455.77</c:v>
+                  <c:v>322.76666699999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9902.2000000000007</c:v>
+                  <c:v>773.73333300000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>252003.20000000001</c:v>
+                  <c:v>5488.4333329999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6252514.9000000004</c:v>
+                  <c:v>34778.9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25024858.77</c:v>
+                  <c:v>77770.533332999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -844,16 +882,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0272-4B18-A03D-1C0FCDD1A8C7}"/>
+              <c16:uniqueId val="{00000001-7E1A-4036-9B73-565CF14D3FB3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'1swap'!$D$1</c:f>
+              <c:f>'1swap'!$D$266</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -865,7 +903,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -876,7 +914,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'1swap'!$A$2:$A$9</c:f>
+              <c:f>'1swap'!$A$267:$A$274</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -909,7 +947,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1swap'!$D$2:$D$9</c:f>
+              <c:f>'1swap'!$D$267:$D$274</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -943,7 +981,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-0272-4B18-A03D-1C0FCDD1A8C7}"/>
+              <c16:uniqueId val="{00000002-7E1A-4036-9B73-565CF14D3FB3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -956,11 +994,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="393589472"/>
-        <c:axId val="393591440"/>
+        <c:axId val="577951976"/>
+        <c:axId val="577952632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="393589472"/>
+        <c:axId val="577951976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1063,7 +1101,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393591440"/>
+        <c:crossAx val="577952632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1071,7 +1109,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="393591440"/>
+        <c:axId val="577952632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1177,7 +1215,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393589472"/>
+        <c:crossAx val="577951976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1826,21 +1864,21 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>260</xdr:row>
       <xdr:rowOff>179070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>275</xdr:row>
       <xdr:rowOff>179070</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6C7C81C-161A-495C-97E4-49851FCC0063}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1D3AF87-4998-49CB-892E-B508C94ED78F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2157,11 +2195,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D274"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView tabSelected="1" topLeftCell="A255" workbookViewId="0">
+      <selection activeCell="Q265" sqref="Q265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2170,125 +2208,3754 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>10</v>
-      </c>
-      <c r="B2">
-        <v>22.933333000000001</v>
-      </c>
-      <c r="C2">
-        <v>21.8</v>
-      </c>
-      <c r="D2">
-        <v>10</v>
+      <c r="D2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>97.366667000000007</v>
+        <v>14</v>
       </c>
       <c r="C3">
-        <v>92.93</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>611.9</v>
+        <v>19</v>
       </c>
       <c r="C4">
-        <v>609.77</v>
+        <v>7</v>
       </c>
       <c r="D4">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>2485.6</v>
+        <v>17</v>
       </c>
       <c r="C5">
-        <v>2455.77</v>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>200</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>9971.3666670000002</v>
+        <v>26</v>
       </c>
       <c r="C6">
-        <v>9902.2000000000007</v>
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>200</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>251981.86666699999</v>
+        <v>29</v>
       </c>
       <c r="C7">
-        <v>252003.20000000001</v>
+        <v>16</v>
       </c>
       <c r="D7">
-        <v>1000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>5000</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>6251201.5333329998</v>
+        <v>22</v>
       </c>
       <c r="C8">
-        <v>6252514.9000000004</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>5000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>23</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>22</v>
+      </c>
+      <c r="C10">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>25</v>
+      </c>
+      <c r="C12">
+        <v>19</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>25</v>
+      </c>
+      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>27</v>
+      </c>
+      <c r="C14">
+        <v>19</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <v>16</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>21</v>
+      </c>
+      <c r="C17">
+        <v>19</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>25</v>
+      </c>
+      <c r="C19">
+        <v>9</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>28</v>
+      </c>
+      <c r="C20">
+        <v>11</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>13</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>12</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>11</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>22</v>
+      </c>
+      <c r="C25">
+        <v>11</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>9</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>19</v>
+      </c>
+      <c r="C27">
+        <v>12</v>
+      </c>
+      <c r="D27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>12</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>32</v>
+      </c>
+      <c r="C29">
+        <v>14</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>25</v>
+      </c>
+      <c r="C30">
+        <v>13</v>
+      </c>
+      <c r="D30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>38</v>
+      </c>
+      <c r="C31">
+        <v>19</v>
+      </c>
+      <c r="D31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>20</v>
+      </c>
+      <c r="C32">
+        <v>15</v>
+      </c>
+      <c r="D32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33">
+        <v>22.766667000000002</v>
+      </c>
+      <c r="C33">
+        <v>12.266667</v>
+      </c>
+      <c r="D33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>110</v>
+      </c>
+      <c r="C36">
+        <v>37</v>
+      </c>
+      <c r="D36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37">
+        <v>94</v>
+      </c>
+      <c r="C37">
+        <v>29</v>
+      </c>
+      <c r="D37">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38">
+        <v>80</v>
+      </c>
+      <c r="C38">
+        <v>43</v>
+      </c>
+      <c r="D38">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="B39">
+        <v>99</v>
+      </c>
+      <c r="C39">
+        <v>34</v>
+      </c>
+      <c r="D39">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>5</v>
+      </c>
+      <c r="B40">
+        <v>102</v>
+      </c>
+      <c r="C40">
+        <v>39</v>
+      </c>
+      <c r="D40">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>6</v>
+      </c>
+      <c r="B41">
+        <v>101</v>
+      </c>
+      <c r="C41">
+        <v>31</v>
+      </c>
+      <c r="D41">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>7</v>
+      </c>
+      <c r="B42">
+        <v>81</v>
+      </c>
+      <c r="C42">
+        <v>43</v>
+      </c>
+      <c r="D42">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>8</v>
+      </c>
+      <c r="B43">
+        <v>80</v>
+      </c>
+      <c r="C43">
+        <v>17</v>
+      </c>
+      <c r="D43">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>9</v>
+      </c>
+      <c r="B44">
+        <v>98</v>
+      </c>
+      <c r="C44">
+        <v>23</v>
+      </c>
+      <c r="D44">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>10</v>
+      </c>
+      <c r="B45">
+        <v>91</v>
+      </c>
+      <c r="C45">
+        <v>44</v>
+      </c>
+      <c r="D45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>11</v>
+      </c>
+      <c r="B46">
+        <v>72</v>
+      </c>
+      <c r="C46">
+        <v>29</v>
+      </c>
+      <c r="D46">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>12</v>
+      </c>
+      <c r="B47">
+        <v>67</v>
+      </c>
+      <c r="C47">
+        <v>28</v>
+      </c>
+      <c r="D47">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>13</v>
+      </c>
+      <c r="B48">
+        <v>112</v>
+      </c>
+      <c r="C48">
+        <v>35</v>
+      </c>
+      <c r="D48">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>14</v>
+      </c>
+      <c r="B49">
+        <v>97</v>
+      </c>
+      <c r="C49">
+        <v>46</v>
+      </c>
+      <c r="D49">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>15</v>
+      </c>
+      <c r="B50">
+        <v>105</v>
+      </c>
+      <c r="C50">
+        <v>39</v>
+      </c>
+      <c r="D50">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>16</v>
+      </c>
+      <c r="B51">
+        <v>98</v>
+      </c>
+      <c r="C51">
+        <v>31</v>
+      </c>
+      <c r="D51">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>17</v>
+      </c>
+      <c r="B52">
+        <v>96</v>
+      </c>
+      <c r="C52">
+        <v>36</v>
+      </c>
+      <c r="D52">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>18</v>
+      </c>
+      <c r="B53">
+        <v>123</v>
+      </c>
+      <c r="C53">
+        <v>34</v>
+      </c>
+      <c r="D53">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>19</v>
+      </c>
+      <c r="B54">
+        <v>97</v>
+      </c>
+      <c r="C54">
+        <v>32</v>
+      </c>
+      <c r="D54">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>20</v>
+      </c>
+      <c r="B55">
+        <v>63</v>
+      </c>
+      <c r="C55">
+        <v>23</v>
+      </c>
+      <c r="D55">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>21</v>
+      </c>
+      <c r="B56">
+        <v>95</v>
+      </c>
+      <c r="C56">
+        <v>29</v>
+      </c>
+      <c r="D56">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>22</v>
+      </c>
+      <c r="B57">
+        <v>96</v>
+      </c>
+      <c r="C57">
+        <v>30</v>
+      </c>
+      <c r="D57">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>23</v>
+      </c>
+      <c r="B58">
+        <v>93</v>
+      </c>
+      <c r="C58">
+        <v>43</v>
+      </c>
+      <c r="D58">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>24</v>
+      </c>
+      <c r="B59">
+        <v>98</v>
+      </c>
+      <c r="C59">
+        <v>54</v>
+      </c>
+      <c r="D59">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>25</v>
+      </c>
+      <c r="B60">
+        <v>99</v>
+      </c>
+      <c r="C60">
+        <v>38</v>
+      </c>
+      <c r="D60">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>26</v>
+      </c>
+      <c r="B61">
+        <v>117</v>
+      </c>
+      <c r="C61">
+        <v>48</v>
+      </c>
+      <c r="D61">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>27</v>
+      </c>
+      <c r="B62">
+        <v>104</v>
+      </c>
+      <c r="C62">
+        <v>45</v>
+      </c>
+      <c r="D62">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>28</v>
+      </c>
+      <c r="B63">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>29</v>
+      </c>
+      <c r="D63">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>29</v>
+      </c>
+      <c r="B64">
+        <v>65</v>
+      </c>
+      <c r="C64">
+        <v>23</v>
+      </c>
+      <c r="D64">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>30</v>
+      </c>
+      <c r="B65">
+        <v>87</v>
+      </c>
+      <c r="C65">
+        <v>35</v>
+      </c>
+      <c r="D65">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66">
+        <v>93.6</v>
+      </c>
+      <c r="C66">
+        <v>34.9</v>
+      </c>
+      <c r="D66">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" t="s">
+        <v>2</v>
+      </c>
+      <c r="C68" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69">
+        <v>633</v>
+      </c>
+      <c r="C69">
+        <v>152</v>
+      </c>
+      <c r="D69">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>2</v>
+      </c>
+      <c r="B70">
+        <v>553</v>
+      </c>
+      <c r="C70">
+        <v>93</v>
+      </c>
+      <c r="D70">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>3</v>
+      </c>
+      <c r="B71">
+        <v>511</v>
+      </c>
+      <c r="C71">
+        <v>101</v>
+      </c>
+      <c r="D71">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>4</v>
+      </c>
+      <c r="B72">
+        <v>623</v>
+      </c>
+      <c r="C72">
+        <v>177</v>
+      </c>
+      <c r="D72">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>5</v>
+      </c>
+      <c r="B73">
+        <v>562</v>
+      </c>
+      <c r="C73">
+        <v>113</v>
+      </c>
+      <c r="D73">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>6</v>
+      </c>
+      <c r="B74">
+        <v>630</v>
+      </c>
+      <c r="C74">
+        <v>137</v>
+      </c>
+      <c r="D74">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>7</v>
+      </c>
+      <c r="B75">
+        <v>599</v>
+      </c>
+      <c r="C75">
+        <v>94</v>
+      </c>
+      <c r="D75">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>8</v>
+      </c>
+      <c r="B76">
+        <v>479</v>
+      </c>
+      <c r="C76">
+        <v>177</v>
+      </c>
+      <c r="D76">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>9</v>
+      </c>
+      <c r="B77">
+        <v>575</v>
+      </c>
+      <c r="C77">
+        <v>96</v>
+      </c>
+      <c r="D77">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>10</v>
+      </c>
+      <c r="B78">
+        <v>657</v>
+      </c>
+      <c r="C78">
+        <v>143</v>
+      </c>
+      <c r="D78">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>11</v>
+      </c>
+      <c r="B79">
+        <v>566</v>
+      </c>
+      <c r="C79">
+        <v>148</v>
+      </c>
+      <c r="D79">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>12</v>
+      </c>
+      <c r="B80">
+        <v>587</v>
+      </c>
+      <c r="C80">
+        <v>135</v>
+      </c>
+      <c r="D80">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>13</v>
+      </c>
+      <c r="B81">
+        <v>605</v>
+      </c>
+      <c r="C81">
+        <v>123</v>
+      </c>
+      <c r="D81">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>14</v>
+      </c>
+      <c r="B82">
+        <v>550</v>
+      </c>
+      <c r="C82">
+        <v>124</v>
+      </c>
+      <c r="D82">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>15</v>
+      </c>
+      <c r="B83">
+        <v>664</v>
+      </c>
+      <c r="C83">
+        <v>109</v>
+      </c>
+      <c r="D83">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>16</v>
+      </c>
+      <c r="B84">
+        <v>607</v>
+      </c>
+      <c r="C84">
+        <v>123</v>
+      </c>
+      <c r="D84">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>17</v>
+      </c>
+      <c r="B85">
+        <v>624</v>
+      </c>
+      <c r="C85">
+        <v>115</v>
+      </c>
+      <c r="D85">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>18</v>
+      </c>
+      <c r="B86">
+        <v>618</v>
+      </c>
+      <c r="C86">
+        <v>136</v>
+      </c>
+      <c r="D86">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>19</v>
+      </c>
+      <c r="B87">
+        <v>671</v>
+      </c>
+      <c r="C87">
+        <v>170</v>
+      </c>
+      <c r="D87">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>20</v>
+      </c>
+      <c r="B88">
+        <v>673</v>
+      </c>
+      <c r="C88">
+        <v>112</v>
+      </c>
+      <c r="D88">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>21</v>
+      </c>
+      <c r="B89">
+        <v>579</v>
+      </c>
+      <c r="C89">
+        <v>109</v>
+      </c>
+      <c r="D89">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>22</v>
+      </c>
+      <c r="B90">
+        <v>646</v>
+      </c>
+      <c r="C90">
+        <v>164</v>
+      </c>
+      <c r="D90">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>23</v>
+      </c>
+      <c r="B91">
+        <v>587</v>
+      </c>
+      <c r="C91">
+        <v>99</v>
+      </c>
+      <c r="D91">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>24</v>
+      </c>
+      <c r="B92">
+        <v>568</v>
+      </c>
+      <c r="C92">
+        <v>147</v>
+      </c>
+      <c r="D92">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>25</v>
+      </c>
+      <c r="B93">
+        <v>623</v>
+      </c>
+      <c r="C93">
+        <v>138</v>
+      </c>
+      <c r="D93">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>26</v>
+      </c>
+      <c r="B94">
+        <v>554</v>
+      </c>
+      <c r="C94">
+        <v>143</v>
+      </c>
+      <c r="D94">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>27</v>
+      </c>
+      <c r="B95">
+        <v>590</v>
+      </c>
+      <c r="C95">
+        <v>70</v>
+      </c>
+      <c r="D95">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>28</v>
+      </c>
+      <c r="B96">
+        <v>622</v>
+      </c>
+      <c r="C96">
+        <v>102</v>
+      </c>
+      <c r="D96">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>29</v>
+      </c>
+      <c r="B97">
+        <v>637</v>
+      </c>
+      <c r="C97">
+        <v>130</v>
+      </c>
+      <c r="D97">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>30</v>
+      </c>
+      <c r="B98">
+        <v>610</v>
+      </c>
+      <c r="C98">
+        <v>122</v>
+      </c>
+      <c r="D98">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99">
+        <v>600.1</v>
+      </c>
+      <c r="C99">
+        <v>126.733333</v>
+      </c>
+      <c r="D99">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" t="s">
+        <v>2</v>
+      </c>
+      <c r="C101" t="s">
+        <v>3</v>
+      </c>
+      <c r="D101" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>1</v>
+      </c>
+      <c r="B102">
+        <v>2615</v>
+      </c>
+      <c r="C102">
+        <v>364</v>
+      </c>
+      <c r="D102">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>2</v>
+      </c>
+      <c r="B103">
+        <v>2629</v>
+      </c>
+      <c r="C103">
+        <v>297</v>
+      </c>
+      <c r="D103">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>3</v>
+      </c>
+      <c r="B104">
+        <v>2625</v>
+      </c>
+      <c r="C104">
+        <v>327</v>
+      </c>
+      <c r="D104">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>4</v>
+      </c>
+      <c r="B105">
+        <v>2609</v>
+      </c>
+      <c r="C105">
+        <v>506</v>
+      </c>
+      <c r="D105">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>5</v>
+      </c>
+      <c r="B106">
+        <v>1912</v>
+      </c>
+      <c r="C106">
+        <v>254</v>
+      </c>
+      <c r="D106">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>6</v>
+      </c>
+      <c r="B107">
+        <v>2601</v>
+      </c>
+      <c r="C107">
+        <v>332</v>
+      </c>
+      <c r="D107">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>7</v>
+      </c>
+      <c r="B108">
+        <v>2337</v>
+      </c>
+      <c r="C108">
+        <v>351</v>
+      </c>
+      <c r="D108">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>8</v>
+      </c>
+      <c r="B109">
+        <v>2413</v>
+      </c>
+      <c r="C109">
+        <v>371</v>
+      </c>
+      <c r="D109">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>9</v>
+      </c>
+      <c r="B110">
+        <v>2521</v>
+      </c>
+      <c r="C110">
+        <v>262</v>
+      </c>
+      <c r="D110">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>10</v>
+      </c>
+      <c r="B111">
+        <v>2601</v>
+      </c>
+      <c r="C111">
+        <v>277</v>
+      </c>
+      <c r="D111">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>11</v>
+      </c>
+      <c r="B112">
+        <v>2648</v>
+      </c>
+      <c r="C112">
+        <v>399</v>
+      </c>
+      <c r="D112">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>12</v>
+      </c>
+      <c r="B113">
+        <v>2311</v>
+      </c>
+      <c r="C113">
+        <v>391</v>
+      </c>
+      <c r="D113">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>13</v>
+      </c>
+      <c r="B114">
+        <v>2520</v>
+      </c>
+      <c r="C114">
+        <v>402</v>
+      </c>
+      <c r="D114">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>14</v>
+      </c>
+      <c r="B115">
+        <v>2356</v>
+      </c>
+      <c r="C115">
+        <v>427</v>
+      </c>
+      <c r="D115">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>15</v>
+      </c>
+      <c r="B116">
+        <v>2249</v>
+      </c>
+      <c r="C116">
+        <v>249</v>
+      </c>
+      <c r="D116">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>16</v>
+      </c>
+      <c r="B117">
+        <v>2422</v>
+      </c>
+      <c r="C117">
+        <v>263</v>
+      </c>
+      <c r="D117">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>17</v>
+      </c>
+      <c r="B118">
+        <v>2323</v>
+      </c>
+      <c r="C118">
+        <v>239</v>
+      </c>
+      <c r="D118">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>18</v>
+      </c>
+      <c r="B119">
+        <v>2490</v>
+      </c>
+      <c r="C119">
+        <v>356</v>
+      </c>
+      <c r="D119">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>19</v>
+      </c>
+      <c r="B120">
+        <v>2282</v>
+      </c>
+      <c r="C120">
+        <v>276</v>
+      </c>
+      <c r="D120">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>20</v>
+      </c>
+      <c r="B121">
+        <v>2289</v>
+      </c>
+      <c r="C121">
+        <v>287</v>
+      </c>
+      <c r="D121">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>21</v>
+      </c>
+      <c r="B122">
+        <v>2535</v>
+      </c>
+      <c r="C122">
+        <v>260</v>
+      </c>
+      <c r="D122">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>22</v>
+      </c>
+      <c r="B123">
+        <v>2552</v>
+      </c>
+      <c r="C123">
+        <v>423</v>
+      </c>
+      <c r="D123">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>23</v>
+      </c>
+      <c r="B124">
+        <v>2615</v>
+      </c>
+      <c r="C124">
+        <v>260</v>
+      </c>
+      <c r="D124">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>24</v>
+      </c>
+      <c r="B125">
+        <v>2499</v>
+      </c>
+      <c r="C125">
+        <v>311</v>
+      </c>
+      <c r="D125">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>25</v>
+      </c>
+      <c r="B126">
+        <v>2590</v>
+      </c>
+      <c r="C126">
+        <v>227</v>
+      </c>
+      <c r="D126">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>26</v>
+      </c>
+      <c r="B127">
+        <v>2570</v>
+      </c>
+      <c r="C127">
+        <v>268</v>
+      </c>
+      <c r="D127">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>27</v>
+      </c>
+      <c r="B128">
+        <v>2222</v>
+      </c>
+      <c r="C128">
+        <v>272</v>
+      </c>
+      <c r="D128">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>28</v>
+      </c>
+      <c r="B129">
+        <v>2399</v>
+      </c>
+      <c r="C129">
+        <v>423</v>
+      </c>
+      <c r="D129">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>29</v>
+      </c>
+      <c r="B130">
+        <v>2557</v>
+      </c>
+      <c r="C130">
+        <v>299</v>
+      </c>
+      <c r="D130">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>30</v>
+      </c>
+      <c r="B131">
+        <v>2589</v>
+      </c>
+      <c r="C131">
+        <v>310</v>
+      </c>
+      <c r="D131">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>5</v>
+      </c>
+      <c r="B132">
+        <v>2462.6999999999998</v>
+      </c>
+      <c r="C132">
+        <v>322.76666699999998</v>
+      </c>
+      <c r="D132">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" t="s">
+        <v>2</v>
+      </c>
+      <c r="C134" t="s">
+        <v>3</v>
+      </c>
+      <c r="D134" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>1</v>
+      </c>
+      <c r="B135">
+        <v>9511</v>
+      </c>
+      <c r="C135">
+        <v>760</v>
+      </c>
+      <c r="D135">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>2</v>
+      </c>
+      <c r="B136">
+        <v>9661</v>
+      </c>
+      <c r="C136">
+        <v>818</v>
+      </c>
+      <c r="D136">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>3</v>
+      </c>
+      <c r="B137">
+        <v>10160</v>
+      </c>
+      <c r="C137">
+        <v>792</v>
+      </c>
+      <c r="D137">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>4</v>
+      </c>
+      <c r="B138">
+        <v>9846</v>
+      </c>
+      <c r="C138">
+        <v>694</v>
+      </c>
+      <c r="D138">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>5</v>
+      </c>
+      <c r="B139">
+        <v>9552</v>
+      </c>
+      <c r="C139">
+        <v>720</v>
+      </c>
+      <c r="D139">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>6</v>
+      </c>
+      <c r="B140">
+        <v>10213</v>
+      </c>
+      <c r="C140">
+        <v>740</v>
+      </c>
+      <c r="D140">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>7</v>
+      </c>
+      <c r="B141">
+        <v>10351</v>
+      </c>
+      <c r="C141">
+        <v>713</v>
+      </c>
+      <c r="D141">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>8</v>
+      </c>
+      <c r="B142">
+        <v>9981</v>
+      </c>
+      <c r="C142">
+        <v>673</v>
+      </c>
+      <c r="D142">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>9</v>
+      </c>
+      <c r="B143">
+        <v>9281</v>
+      </c>
+      <c r="C143">
+        <v>829</v>
+      </c>
+      <c r="D143">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>10</v>
+      </c>
+      <c r="B144">
+        <v>9318</v>
+      </c>
+      <c r="C144">
+        <v>800</v>
+      </c>
+      <c r="D144">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>11</v>
+      </c>
+      <c r="B145">
+        <v>9331</v>
+      </c>
+      <c r="C145">
+        <v>605</v>
+      </c>
+      <c r="D145">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>12</v>
+      </c>
+      <c r="B146">
+        <v>9065</v>
+      </c>
+      <c r="C146">
+        <v>968</v>
+      </c>
+      <c r="D146">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>13</v>
+      </c>
+      <c r="B147">
+        <v>9259</v>
+      </c>
+      <c r="C147">
+        <v>619</v>
+      </c>
+      <c r="D147">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>14</v>
+      </c>
+      <c r="B148">
+        <v>9700</v>
+      </c>
+      <c r="C148">
+        <v>929</v>
+      </c>
+      <c r="D148">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>15</v>
+      </c>
+      <c r="B149">
+        <v>10725</v>
+      </c>
+      <c r="C149">
+        <v>880</v>
+      </c>
+      <c r="D149">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>16</v>
+      </c>
+      <c r="B150">
+        <v>10372</v>
+      </c>
+      <c r="C150">
+        <v>777</v>
+      </c>
+      <c r="D150">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>17</v>
+      </c>
+      <c r="B151">
+        <v>10297</v>
+      </c>
+      <c r="C151">
+        <v>761</v>
+      </c>
+      <c r="D151">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>18</v>
+      </c>
+      <c r="B152">
+        <v>10073</v>
+      </c>
+      <c r="C152">
+        <v>704</v>
+      </c>
+      <c r="D152">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>19</v>
+      </c>
+      <c r="B153">
+        <v>10034</v>
+      </c>
+      <c r="C153">
+        <v>654</v>
+      </c>
+      <c r="D153">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>20</v>
+      </c>
+      <c r="B154">
+        <v>10331</v>
+      </c>
+      <c r="C154">
+        <v>888</v>
+      </c>
+      <c r="D154">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>21</v>
+      </c>
+      <c r="B155">
+        <v>10191</v>
+      </c>
+      <c r="C155">
+        <v>707</v>
+      </c>
+      <c r="D155">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>22</v>
+      </c>
+      <c r="B156">
+        <v>10435</v>
+      </c>
+      <c r="C156">
+        <v>621</v>
+      </c>
+      <c r="D156">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>23</v>
+      </c>
+      <c r="B157">
+        <v>9272</v>
+      </c>
+      <c r="C157">
+        <v>769</v>
+      </c>
+      <c r="D157">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>24</v>
+      </c>
+      <c r="B158">
+        <v>9727</v>
+      </c>
+      <c r="C158">
+        <v>746</v>
+      </c>
+      <c r="D158">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>25</v>
+      </c>
+      <c r="B159">
+        <v>10938</v>
+      </c>
+      <c r="C159">
+        <v>948</v>
+      </c>
+      <c r="D159">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>26</v>
+      </c>
+      <c r="B160">
+        <v>10413</v>
+      </c>
+      <c r="C160">
+        <v>936</v>
+      </c>
+      <c r="D160">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>27</v>
+      </c>
+      <c r="B161">
+        <v>10244</v>
+      </c>
+      <c r="C161">
+        <v>643</v>
+      </c>
+      <c r="D161">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>28</v>
+      </c>
+      <c r="B162">
+        <v>10401</v>
+      </c>
+      <c r="C162">
+        <v>799</v>
+      </c>
+      <c r="D162">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>29</v>
+      </c>
+      <c r="B163">
+        <v>10110</v>
+      </c>
+      <c r="C163">
+        <v>915</v>
+      </c>
+      <c r="D163">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>30</v>
+      </c>
+      <c r="B164">
+        <v>10355</v>
+      </c>
+      <c r="C164">
+        <v>804</v>
+      </c>
+      <c r="D164">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>5</v>
+      </c>
+      <c r="B165">
+        <v>9971.5666669999991</v>
+      </c>
+      <c r="C165">
+        <v>773.73333300000002</v>
+      </c>
+      <c r="D165">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" t="s">
+        <v>2</v>
+      </c>
+      <c r="C167" t="s">
+        <v>3</v>
+      </c>
+      <c r="D167" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>1</v>
+      </c>
+      <c r="B168">
+        <v>248717</v>
+      </c>
+      <c r="C168">
+        <v>6355</v>
+      </c>
+      <c r="D168">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>2</v>
+      </c>
+      <c r="B169">
+        <v>245835</v>
+      </c>
+      <c r="C169">
+        <v>5360</v>
+      </c>
+      <c r="D169">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>3</v>
+      </c>
+      <c r="B170">
+        <v>253304</v>
+      </c>
+      <c r="C170">
+        <v>5061</v>
+      </c>
+      <c r="D170">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>4</v>
+      </c>
+      <c r="B171">
+        <v>250898</v>
+      </c>
+      <c r="C171">
+        <v>5504</v>
+      </c>
+      <c r="D171">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>5</v>
+      </c>
+      <c r="B172">
+        <v>258300</v>
+      </c>
+      <c r="C172">
+        <v>6035</v>
+      </c>
+      <c r="D172">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>6</v>
+      </c>
+      <c r="B173">
+        <v>238096</v>
+      </c>
+      <c r="C173">
+        <v>5829</v>
+      </c>
+      <c r="D173">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>7</v>
+      </c>
+      <c r="B174">
+        <v>249273</v>
+      </c>
+      <c r="C174">
+        <v>5265</v>
+      </c>
+      <c r="D174">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>8</v>
+      </c>
+      <c r="B175">
+        <v>252229</v>
+      </c>
+      <c r="C175">
+        <v>6198</v>
+      </c>
+      <c r="D175">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>9</v>
+      </c>
+      <c r="B176">
+        <v>250885</v>
+      </c>
+      <c r="C176">
+        <v>4656</v>
+      </c>
+      <c r="D176">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>10</v>
+      </c>
+      <c r="B177">
+        <v>256919</v>
+      </c>
+      <c r="C177">
+        <v>4661</v>
+      </c>
+      <c r="D177">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>11</v>
+      </c>
+      <c r="B178">
+        <v>251515</v>
+      </c>
+      <c r="C178">
+        <v>5659</v>
+      </c>
+      <c r="D178">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>12</v>
+      </c>
+      <c r="B179">
+        <v>251821</v>
+      </c>
+      <c r="C179">
+        <v>5899</v>
+      </c>
+      <c r="D179">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>13</v>
+      </c>
+      <c r="B180">
+        <v>266159</v>
+      </c>
+      <c r="C180">
+        <v>6559</v>
+      </c>
+      <c r="D180">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>14</v>
+      </c>
+      <c r="B181">
+        <v>249307</v>
+      </c>
+      <c r="C181">
+        <v>5463</v>
+      </c>
+      <c r="D181">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>15</v>
+      </c>
+      <c r="B182">
+        <v>245985</v>
+      </c>
+      <c r="C182">
+        <v>5654</v>
+      </c>
+      <c r="D182">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>16</v>
+      </c>
+      <c r="B183">
+        <v>242817</v>
+      </c>
+      <c r="C183">
+        <v>6272</v>
+      </c>
+      <c r="D183">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>17</v>
+      </c>
+      <c r="B184">
+        <v>241101</v>
+      </c>
+      <c r="C184">
+        <v>5501</v>
+      </c>
+      <c r="D184">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>18</v>
+      </c>
+      <c r="B185">
+        <v>236610</v>
+      </c>
+      <c r="C185">
+        <v>4960</v>
+      </c>
+      <c r="D185">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>19</v>
+      </c>
+      <c r="B186">
+        <v>245916</v>
+      </c>
+      <c r="C186">
+        <v>5174</v>
+      </c>
+      <c r="D186">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>20</v>
+      </c>
+      <c r="B187">
+        <v>239014</v>
+      </c>
+      <c r="C187">
+        <v>5268</v>
+      </c>
+      <c r="D187">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>21</v>
+      </c>
+      <c r="B188">
+        <v>249777</v>
+      </c>
+      <c r="C188">
+        <v>5417</v>
+      </c>
+      <c r="D188">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>22</v>
+      </c>
+      <c r="B189">
+        <v>251320</v>
+      </c>
+      <c r="C189">
+        <v>6160</v>
+      </c>
+      <c r="D189">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>23</v>
+      </c>
+      <c r="B190">
+        <v>256545</v>
+      </c>
+      <c r="C190">
+        <v>4126</v>
+      </c>
+      <c r="D190">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>24</v>
+      </c>
+      <c r="B191">
+        <v>246011</v>
+      </c>
+      <c r="C191">
+        <v>5557</v>
+      </c>
+      <c r="D191">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>25</v>
+      </c>
+      <c r="B192">
+        <v>244883</v>
+      </c>
+      <c r="C192">
+        <v>4506</v>
+      </c>
+      <c r="D192">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>26</v>
+      </c>
+      <c r="B193">
+        <v>252783</v>
+      </c>
+      <c r="C193">
+        <v>5485</v>
+      </c>
+      <c r="D193">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>27</v>
+      </c>
+      <c r="B194">
+        <v>248040</v>
+      </c>
+      <c r="C194">
+        <v>6396</v>
+      </c>
+      <c r="D194">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>28</v>
+      </c>
+      <c r="B195">
+        <v>254175</v>
+      </c>
+      <c r="C195">
+        <v>5480</v>
+      </c>
+      <c r="D195">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>29</v>
+      </c>
+      <c r="B196">
+        <v>250601</v>
+      </c>
+      <c r="C196">
+        <v>5091</v>
+      </c>
+      <c r="D196">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>30</v>
+      </c>
+      <c r="B197">
+        <v>238138</v>
+      </c>
+      <c r="C197">
+        <v>5102</v>
+      </c>
+      <c r="D197">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>5</v>
+      </c>
+      <c r="B198">
+        <v>248899.13333300001</v>
+      </c>
+      <c r="C198">
+        <v>5488.4333329999999</v>
+      </c>
+      <c r="D198">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" t="s">
+        <v>2</v>
+      </c>
+      <c r="C200" t="s">
+        <v>3</v>
+      </c>
+      <c r="D200" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>1</v>
+      </c>
+      <c r="B201">
+        <v>6139865</v>
+      </c>
+      <c r="C201">
+        <v>38487</v>
+      </c>
+      <c r="D201">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>2</v>
+      </c>
+      <c r="B202">
+        <v>6145769</v>
+      </c>
+      <c r="C202">
+        <v>40226</v>
+      </c>
+      <c r="D202">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>3</v>
+      </c>
+      <c r="B203">
+        <v>6209786</v>
+      </c>
+      <c r="C203">
+        <v>34474</v>
+      </c>
+      <c r="D203">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>4</v>
+      </c>
+      <c r="B204">
+        <v>6151291</v>
+      </c>
+      <c r="C204">
+        <v>34051</v>
+      </c>
+      <c r="D204">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>5</v>
+      </c>
+      <c r="B205">
+        <v>6155914</v>
+      </c>
+      <c r="C205">
+        <v>30803</v>
+      </c>
+      <c r="D205">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>6</v>
+      </c>
+      <c r="B206">
+        <v>6227873</v>
+      </c>
+      <c r="C206">
+        <v>33046</v>
+      </c>
+      <c r="D206">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>7</v>
+      </c>
+      <c r="B207">
+        <v>6291672</v>
+      </c>
+      <c r="C207">
+        <v>33280</v>
+      </c>
+      <c r="D207">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>8</v>
+      </c>
+      <c r="B208">
+        <v>6380702</v>
+      </c>
+      <c r="C208">
+        <v>33617</v>
+      </c>
+      <c r="D208">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>9</v>
+      </c>
+      <c r="B209">
+        <v>6265578</v>
+      </c>
+      <c r="C209">
+        <v>32253</v>
+      </c>
+      <c r="D209">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>10</v>
+      </c>
+      <c r="B210">
+        <v>6271308</v>
+      </c>
+      <c r="C210">
+        <v>36595</v>
+      </c>
+      <c r="D210">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>11</v>
+      </c>
+      <c r="B211">
+        <v>6253049</v>
+      </c>
+      <c r="C211">
+        <v>36520</v>
+      </c>
+      <c r="D211">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>12</v>
+      </c>
+      <c r="B212">
+        <v>6391042</v>
+      </c>
+      <c r="C212">
+        <v>32399</v>
+      </c>
+      <c r="D212">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>13</v>
+      </c>
+      <c r="B213">
+        <v>6167182</v>
+      </c>
+      <c r="C213">
+        <v>32179</v>
+      </c>
+      <c r="D213">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>14</v>
+      </c>
+      <c r="B214">
+        <v>6206499</v>
+      </c>
+      <c r="C214">
+        <v>33550</v>
+      </c>
+      <c r="D214">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>15</v>
+      </c>
+      <c r="B215">
+        <v>6268856</v>
+      </c>
+      <c r="C215">
+        <v>36088</v>
+      </c>
+      <c r="D215">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>16</v>
+      </c>
+      <c r="B216">
+        <v>6184097</v>
+      </c>
+      <c r="C216">
+        <v>33638</v>
+      </c>
+      <c r="D216">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>17</v>
+      </c>
+      <c r="B217">
+        <v>6237737</v>
+      </c>
+      <c r="C217">
+        <v>33789</v>
+      </c>
+      <c r="D217">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>18</v>
+      </c>
+      <c r="B218">
+        <v>6225264</v>
+      </c>
+      <c r="C218">
+        <v>39437</v>
+      </c>
+      <c r="D218">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>19</v>
+      </c>
+      <c r="B219">
+        <v>6115000</v>
+      </c>
+      <c r="C219">
+        <v>41348</v>
+      </c>
+      <c r="D219">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>20</v>
+      </c>
+      <c r="B220">
+        <v>6277927</v>
+      </c>
+      <c r="C220">
+        <v>35232</v>
+      </c>
+      <c r="D220">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>21</v>
+      </c>
+      <c r="B221">
+        <v>6149707</v>
+      </c>
+      <c r="C221">
+        <v>31106</v>
+      </c>
+      <c r="D221">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>22</v>
+      </c>
+      <c r="B222">
+        <v>6161525</v>
+      </c>
+      <c r="C222">
+        <v>30429</v>
+      </c>
+      <c r="D222">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>23</v>
+      </c>
+      <c r="B223">
+        <v>6295492</v>
+      </c>
+      <c r="C223">
+        <v>34612</v>
+      </c>
+      <c r="D223">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>24</v>
+      </c>
+      <c r="B224">
+        <v>6256164</v>
+      </c>
+      <c r="C224">
+        <v>33449</v>
+      </c>
+      <c r="D224">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>25</v>
+      </c>
+      <c r="B225">
+        <v>6330998</v>
+      </c>
+      <c r="C225">
+        <v>37058</v>
+      </c>
+      <c r="D225">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>26</v>
+      </c>
+      <c r="B226">
+        <v>6344617</v>
+      </c>
+      <c r="C226">
+        <v>35982</v>
+      </c>
+      <c r="D226">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>27</v>
+      </c>
+      <c r="B227">
+        <v>6183877</v>
+      </c>
+      <c r="C227">
+        <v>34303</v>
+      </c>
+      <c r="D227">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>28</v>
+      </c>
+      <c r="B228">
+        <v>6323104</v>
+      </c>
+      <c r="C228">
+        <v>33612</v>
+      </c>
+      <c r="D228">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>29</v>
+      </c>
+      <c r="B229">
+        <v>6231267</v>
+      </c>
+      <c r="C229">
+        <v>35954</v>
+      </c>
+      <c r="D229">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>30</v>
+      </c>
+      <c r="B230">
+        <v>6160962</v>
+      </c>
+      <c r="C230">
+        <v>35850</v>
+      </c>
+      <c r="D230">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>5</v>
+      </c>
+      <c r="B231">
+        <v>6233470.7999999998</v>
+      </c>
+      <c r="C231">
+        <v>34778.9</v>
+      </c>
+      <c r="D231">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>1</v>
+      </c>
+      <c r="B233" t="s">
+        <v>2</v>
+      </c>
+      <c r="C233" t="s">
+        <v>3</v>
+      </c>
+      <c r="D233" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>1</v>
+      </c>
+      <c r="B234">
+        <v>25204265</v>
+      </c>
+      <c r="C234">
+        <v>79328</v>
+      </c>
+      <c r="D234">
         <v>10000</v>
       </c>
-      <c r="B9">
-        <v>24981362.966667</v>
-      </c>
-      <c r="C9">
-        <v>25024858.77</v>
-      </c>
-      <c r="D9">
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>2</v>
+      </c>
+      <c r="B235">
+        <v>24759419</v>
+      </c>
+      <c r="C235">
+        <v>67807</v>
+      </c>
+      <c r="D235">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>3</v>
+      </c>
+      <c r="B236">
+        <v>25036476</v>
+      </c>
+      <c r="C236">
+        <v>80469</v>
+      </c>
+      <c r="D236">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>4</v>
+      </c>
+      <c r="B237">
+        <v>24937193</v>
+      </c>
+      <c r="C237">
+        <v>72395</v>
+      </c>
+      <c r="D237">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>5</v>
+      </c>
+      <c r="B238">
+        <v>25122152</v>
+      </c>
+      <c r="C238">
+        <v>74137</v>
+      </c>
+      <c r="D238">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>6</v>
+      </c>
+      <c r="B239">
+        <v>24914052</v>
+      </c>
+      <c r="C239">
+        <v>93606</v>
+      </c>
+      <c r="D239">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>7</v>
+      </c>
+      <c r="B240">
+        <v>25196483</v>
+      </c>
+      <c r="C240">
+        <v>69443</v>
+      </c>
+      <c r="D240">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>8</v>
+      </c>
+      <c r="B241">
+        <v>24991647</v>
+      </c>
+      <c r="C241">
+        <v>79039</v>
+      </c>
+      <c r="D241">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>9</v>
+      </c>
+      <c r="B242">
+        <v>25194850</v>
+      </c>
+      <c r="C242">
+        <v>85676</v>
+      </c>
+      <c r="D242">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>10</v>
+      </c>
+      <c r="B243">
+        <v>24455522</v>
+      </c>
+      <c r="C243">
+        <v>72554</v>
+      </c>
+      <c r="D243">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>11</v>
+      </c>
+      <c r="B244">
+        <v>25157353</v>
+      </c>
+      <c r="C244">
+        <v>76398</v>
+      </c>
+      <c r="D244">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>12</v>
+      </c>
+      <c r="B245">
+        <v>24709931</v>
+      </c>
+      <c r="C245">
+        <v>82097</v>
+      </c>
+      <c r="D245">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>13</v>
+      </c>
+      <c r="B246">
+        <v>24713520</v>
+      </c>
+      <c r="C246">
+        <v>74296</v>
+      </c>
+      <c r="D246">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>14</v>
+      </c>
+      <c r="B247">
+        <v>24845901</v>
+      </c>
+      <c r="C247">
+        <v>82301</v>
+      </c>
+      <c r="D247">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>15</v>
+      </c>
+      <c r="B248">
+        <v>24504795</v>
+      </c>
+      <c r="C248">
+        <v>76806</v>
+      </c>
+      <c r="D248">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>16</v>
+      </c>
+      <c r="B249">
+        <v>24719067</v>
+      </c>
+      <c r="C249">
+        <v>81927</v>
+      </c>
+      <c r="D249">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>17</v>
+      </c>
+      <c r="B250">
+        <v>25091257</v>
+      </c>
+      <c r="C250">
+        <v>75956</v>
+      </c>
+      <c r="D250">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>18</v>
+      </c>
+      <c r="B251">
+        <v>25108804</v>
+      </c>
+      <c r="C251">
+        <v>77176</v>
+      </c>
+      <c r="D251">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>19</v>
+      </c>
+      <c r="B252">
+        <v>25180545</v>
+      </c>
+      <c r="C252">
+        <v>77346</v>
+      </c>
+      <c r="D252">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>20</v>
+      </c>
+      <c r="B253">
+        <v>24860416</v>
+      </c>
+      <c r="C253">
+        <v>77607</v>
+      </c>
+      <c r="D253">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>21</v>
+      </c>
+      <c r="B254">
+        <v>25201379</v>
+      </c>
+      <c r="C254">
+        <v>71047</v>
+      </c>
+      <c r="D254">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>22</v>
+      </c>
+      <c r="B255">
+        <v>24620511</v>
+      </c>
+      <c r="C255">
+        <v>73125</v>
+      </c>
+      <c r="D255">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>23</v>
+      </c>
+      <c r="B256">
+        <v>25088714</v>
+      </c>
+      <c r="C256">
+        <v>89239</v>
+      </c>
+      <c r="D256">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>24</v>
+      </c>
+      <c r="B257">
+        <v>24940022</v>
+      </c>
+      <c r="C257">
+        <v>80272</v>
+      </c>
+      <c r="D257">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>25</v>
+      </c>
+      <c r="B258">
+        <v>25153257</v>
+      </c>
+      <c r="C258">
+        <v>75655</v>
+      </c>
+      <c r="D258">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>26</v>
+      </c>
+      <c r="B259">
+        <v>24684512</v>
+      </c>
+      <c r="C259">
+        <v>74419</v>
+      </c>
+      <c r="D259">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>27</v>
+      </c>
+      <c r="B260">
+        <v>25127322</v>
+      </c>
+      <c r="C260">
+        <v>73365</v>
+      </c>
+      <c r="D260">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>28</v>
+      </c>
+      <c r="B261">
+        <v>24824361</v>
+      </c>
+      <c r="C261">
+        <v>83571</v>
+      </c>
+      <c r="D261">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>29</v>
+      </c>
+      <c r="B262">
+        <v>24922234</v>
+      </c>
+      <c r="C262">
+        <v>75452</v>
+      </c>
+      <c r="D262">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>30</v>
+      </c>
+      <c r="B263">
+        <v>24952357</v>
+      </c>
+      <c r="C263">
+        <v>80607</v>
+      </c>
+      <c r="D263">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>5</v>
+      </c>
+      <c r="B264">
+        <v>24940610.566667002</v>
+      </c>
+      <c r="C264">
+        <v>77770.533332999999</v>
+      </c>
+      <c r="D264">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>14</v>
+      </c>
+      <c r="B266" t="s">
+        <v>2</v>
+      </c>
+      <c r="C266" t="s">
+        <v>3</v>
+      </c>
+      <c r="D266" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>10</v>
+      </c>
+      <c r="B267">
+        <v>22.766667000000002</v>
+      </c>
+      <c r="C267">
+        <v>12.266667</v>
+      </c>
+      <c r="D267">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>20</v>
+      </c>
+      <c r="B268">
+        <v>93.6</v>
+      </c>
+      <c r="C268">
+        <v>34.9</v>
+      </c>
+      <c r="D268">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>50</v>
+      </c>
+      <c r="B269">
+        <v>600.1</v>
+      </c>
+      <c r="C269">
+        <v>126.733333</v>
+      </c>
+      <c r="D269">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>100</v>
+      </c>
+      <c r="B270">
+        <v>2462.6999999999998</v>
+      </c>
+      <c r="C270">
+        <v>322.76666699999998</v>
+      </c>
+      <c r="D270">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>200</v>
+      </c>
+      <c r="B271">
+        <v>9971.5666669999991</v>
+      </c>
+      <c r="C271">
+        <v>773.73333300000002</v>
+      </c>
+      <c r="D271">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>1000</v>
+      </c>
+      <c r="B272">
+        <v>248899.13333300001</v>
+      </c>
+      <c r="C272">
+        <v>5488.4333329999999</v>
+      </c>
+      <c r="D272">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>5000</v>
+      </c>
+      <c r="B273">
+        <v>6233470.7999999998</v>
+      </c>
+      <c r="C273">
+        <v>34778.9</v>
+      </c>
+      <c r="D273">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>10000</v>
+      </c>
+      <c r="B274">
+        <v>24940610.566667002</v>
+      </c>
+      <c r="C274">
+        <v>77770.533332999999</v>
+      </c>
+      <c r="D274">
         <v>10000</v>
       </c>
     </row>
